--- a/Data2/Company_Project_Review_2017April04.xlsx
+++ b/Data2/Company_Project_Review_2017April04.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arghya\Repos\SurveyScorer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arghya\Repos\SurveyScorer\Data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="203">
   <si>
     <t>Timestamp</t>
   </si>
@@ -336,9 +336,6 @@
     <t>We encourage individuals to self learn, We do regular tech sessions within team, We invite speakers from outside team/company, We ask the team to attend iLearn, We have training license (e.g. Pluralsight, Lynda, Coursera etc.)</t>
   </si>
   <si>
-    <t>FinServ</t>
-  </si>
-  <si>
     <t>Web application, Web services/APIs</t>
   </si>
   <si>
@@ -625,6 +622,12 @@
   </si>
   <si>
     <t>rds@Companylabs.com</t>
+  </si>
+  <si>
+    <t>FinServey</t>
+  </si>
+  <si>
+    <t>HandWaver</t>
   </si>
 </sst>
 </file>
@@ -969,7 +972,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -999,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1100,25 +1103,25 @@
         <v>42778.451774652778</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>38</v>
@@ -1213,19 +1216,19 @@
         <v>42779.421055995372</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>67</v>
@@ -1323,25 +1326,25 @@
         <v>42780.450071180559</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>88</v>
@@ -1431,7 +1434,7 @@
         <v>66</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1439,19 +1442,19 @@
         <v>42780.752974456016</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>67</v>
@@ -1460,16 +1463,16 @@
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>59</v>
@@ -1478,10 +1481,10 @@
         <v>43</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>46</v>
@@ -1499,7 +1502,7 @@
         <v>95</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>52</v>
@@ -1508,16 +1511,16 @@
         <v>53</v>
       </c>
       <c r="Y5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>82</v>
@@ -1529,16 +1532,16 @@
         <v>60</v>
       </c>
       <c r="AG5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="AK5" s="2" t="s">
         <v>66</v>
@@ -1549,19 +1552,19 @@
         <v>42781.640476562505</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>37</v>
@@ -1570,25 +1573,25 @@
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>45</v>
@@ -1600,34 +1603,34 @@
         <v>75</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>78</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC6" s="2" t="s">
         <v>82</v>
@@ -1645,13 +1648,13 @@
         <v>63</v>
       </c>
       <c r="AI6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1659,49 +1662,49 @@
         <v>42783.678255057872</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>69</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>46</v>
@@ -1710,7 +1713,7 @@
         <v>75</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>49</v>
@@ -1722,19 +1725,19 @@
         <v>51</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>78</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>57</v>
@@ -1743,7 +1746,7 @@
         <v>82</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>66</v>
@@ -1752,16 +1755,16 @@
         <v>103</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>86</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1769,43 +1772,43 @@
         <v>42786.593269340279</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="O8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>45</v>
@@ -1817,7 +1820,7 @@
         <v>75</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>49</v>
@@ -1835,40 +1838,40 @@
         <v>53</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AA8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB8" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="AC8" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>46</v>
@@ -1879,46 +1882,46 @@
         <v>42786.59586173611</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="N9" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>45</v>
@@ -1930,7 +1933,7 @@
         <v>75</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>49</v>
@@ -1948,28 +1951,28 @@
         <v>53</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AA9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB9" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="AC9" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>62</v>
@@ -1978,10 +1981,10 @@
         <v>63</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK9" s="2" t="s">
         <v>46</v>
@@ -1992,19 +1995,19 @@
         <v>42786.788004756949</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>67</v>
@@ -2013,22 +2016,22 @@
         <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>74</v>
@@ -2043,10 +2046,10 @@
         <v>75</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>76</v>
@@ -2061,19 +2064,19 @@
         <v>78</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD10" s="2" t="s">
         <v>59</v>
@@ -2082,19 +2085,19 @@
         <v>60</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AH10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AI10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AJ10" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="AK10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Data2/Company_Project_Review_2017April04.xlsx
+++ b/Data2/Company_Project_Review_2017April04.xlsx
@@ -558,9 +558,6 @@
     <t>E--GOLD</t>
   </si>
   <si>
-    <t>Fin Data WarehousE</t>
-  </si>
-  <si>
     <t>STPX</t>
   </si>
   <si>
@@ -628,6 +625,9 @@
   </si>
   <si>
     <t>HandWaver</t>
+  </si>
+  <si>
+    <t>FinData WarehousE</t>
   </si>
 </sst>
 </file>
@@ -972,7 +972,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1103,10 +1103,10 @@
         <v>42778.451774652778</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -1115,7 +1115,7 @@
         <v>172</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>37</v>
@@ -1216,10 +1216,10 @@
         <v>42779.421055995372</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>170</v>
@@ -1228,7 +1228,7 @@
         <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>67</v>
@@ -1326,19 +1326,19 @@
         <v>42780.450071180559</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>87</v>
@@ -1442,19 +1442,19 @@
         <v>42780.752974456016</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>67</v>
@@ -1552,7 +1552,7 @@
         <v>42781.640476562505</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>177</v>
@@ -1561,10 +1561,10 @@
         <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>37</v>
@@ -1662,19 +1662,19 @@
         <v>42783.678255057872</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>87</v>
@@ -1772,7 +1772,7 @@
         <v>42786.593269340279</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>174</v>
@@ -1781,7 +1781,7 @@
         <v>172</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>87</v>
@@ -1882,7 +1882,7 @@
         <v>42786.59586173611</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>175</v>
@@ -1894,7 +1894,7 @@
         <v>172</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>87</v>
@@ -1995,7 +1995,7 @@
         <v>42786.788004756949</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>176</v>
@@ -2007,7 +2007,7 @@
         <v>170</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>67</v>
